--- a/playbook.xlsx
+++ b/playbook.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Github\zscrape\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E97235-B2ED-4C60-85AB-384EDA6AF9E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34CDC673-9763-42B3-8720-31B217E1DC7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{432672FC-56EB-402A-8412-5F575AC5DC39}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{432672FC-56EB-402A-8412-5F575AC5DC39}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="estimate nha Cao" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="50">
   <si>
     <t>Purchase price</t>
   </si>
@@ -189,7 +190,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,6 +205,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="Libre Franklin"/>
     </font>
   </fonts>
   <fills count="2">
@@ -226,10 +232,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -546,22 +553,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1893361-E243-4415-870A-FA159A2F3494}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="C1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -579,7 +586,7 @@
         <v>5250</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -597,7 +604,7 @@
         <v>3750</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -608,7 +615,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -626,7 +633,7 @@
         <v>157250</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="F6" t="s">
         <v>23</v>
       </c>
@@ -635,7 +642,7 @@
         <v>37500</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -660,7 +667,7 @@
         <v>112500</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -685,7 +692,7 @@
         <v>3.5416666666666669E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="F9" t="s">
         <v>26</v>
       </c>
@@ -701,7 +708,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -719,7 +726,7 @@
         <v>553.4323774644098</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -733,7 +740,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -751,7 +758,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -769,7 +776,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="F14" t="s">
         <v>42</v>
       </c>
@@ -778,7 +785,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -796,7 +803,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -814,7 +821,7 @@
         <v>312.5</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -832,7 +839,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -850,7 +857,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="F19" t="s">
         <v>47</v>
       </c>
@@ -859,7 +866,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="F20" t="s">
         <v>48</v>
       </c>
@@ -868,7 +875,7 @@
         <v>553.4323774644098</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="F22" t="s">
         <v>27</v>
       </c>
@@ -877,7 +884,7 @@
         <v>1539.9323774644099</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="F23" t="s">
         <v>28</v>
       </c>
@@ -886,12 +893,12 @@
         <v>260.06762253559009</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="F24" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="F25" t="s">
         <v>30</v>
       </c>
@@ -900,7 +907,7 @@
         <v>7.3001437904727045</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="F27" t="s">
         <v>31</v>
       </c>
@@ -909,13 +916,395 @@
         <v>39500</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="F28" t="s">
         <v>49</v>
       </c>
       <c r="G28">
         <f>B10/(B2+B3)*100</f>
         <v>1.1842105263157896</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4189CE8-3D6A-4EAC-9187-109B6DA4B457}">
+  <dimension ref="A1:J28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>197000</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <f>B2*B4/100</f>
+        <v>6895</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3">
+        <f>B2*B5/100</f>
+        <v>5141.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4">
+        <v>3.5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="3">
+        <v>2.61</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5">
+        <f>B2+B3+G2</f>
+        <v>203895</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6">
+        <f>B2*0.25</f>
+        <v>49250</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>3.75</v>
+      </c>
+      <c r="C7">
+        <v>4.25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7">
+        <f>B2-G6</f>
+        <v>147750</v>
+      </c>
+      <c r="I7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7">
+        <f>G7</f>
+        <v>147750</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>15</v>
+      </c>
+      <c r="C8">
+        <v>30</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8">
+        <f>J10</f>
+        <v>1074.4711590283498</v>
+      </c>
+      <c r="I8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8">
+        <f>B7/100/12</f>
+        <v>3.1249999999999997E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="F9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9">
+        <f>G6+G2</f>
+        <v>56145</v>
+      </c>
+      <c r="I9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9">
+        <f>B8*12</f>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>1800</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" t="s">
+        <v>35</v>
+      </c>
+      <c r="J10">
+        <f>J7*(J8*POWER(1+J8,J9))/(POWER(1+J8,J9)-1)</f>
+        <v>1074.4711590283498</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>100</v>
+      </c>
+      <c r="F11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12">
+        <f>B10*B15/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>60</v>
+      </c>
+      <c r="C13">
+        <v>100</v>
+      </c>
+      <c r="F13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13">
+        <f>B10*B17/100</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="F14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14">
+        <f>B12</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15">
+        <f>B10*B18/100</f>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16">
+        <f>G3/12</f>
+        <v>428.47499999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17">
+        <f>B10*B16/100</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18">
+        <f>B11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="F19" t="s">
+        <v>47</v>
+      </c>
+      <c r="G19">
+        <f>B13</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="F20" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20">
+        <f>G8</f>
+        <v>1074.4711590283498</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="F22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22">
+        <f>SUM(G12:G21)</f>
+        <v>1917.9461590283497</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="F23" t="s">
+        <v>28</v>
+      </c>
+      <c r="G23">
+        <f>B10-G22</f>
+        <v>-117.94615902834971</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="F24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="F25" t="s">
+        <v>30</v>
+      </c>
+      <c r="G25" s="2">
+        <f>G23*12/G9*100</f>
+        <v>-2.5208903879957192</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="F27" t="s">
+        <v>31</v>
+      </c>
+      <c r="G27">
+        <f>G6+B3</f>
+        <v>49250</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="F28" t="s">
+        <v>49</v>
+      </c>
+      <c r="G28">
+        <f>B10/(B2+B3)*100</f>
+        <v>0.91370558375634525</v>
       </c>
     </row>
   </sheetData>
